--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="CreateWorker" sheetId="2" r:id="rId2"/>
-    <sheet name="BankDetails" sheetId="3" r:id="rId3"/>
-    <sheet name="Edit" sheetId="4" r:id="rId4"/>
-    <sheet name="workerpage" sheetId="5" r:id="rId5"/>
+    <sheet name="PassReset" sheetId="6" r:id="rId2"/>
+    <sheet name="workerpage" sheetId="5" r:id="rId3"/>
+    <sheet name="CreateWorker" sheetId="2" r:id="rId4"/>
+    <sheet name="BankDetails" sheetId="3" r:id="rId5"/>
+    <sheet name="Edit" sheetId="4" r:id="rId6"/>
+    <sheet name="Deduction" sheetId="7" r:id="rId7"/>
+    <sheet name="AddDeduction" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -57,9 +60,6 @@
     <t>MiddleName</t>
   </si>
   <si>
-    <t xml:space="preserve"> AddressLine1*</t>
-  </si>
-  <si>
     <t>AddressLine2</t>
   </si>
   <si>
@@ -90,12 +90,6 @@
     <t>abin@gmail.com</t>
   </si>
   <si>
-    <t>First Name*</t>
-  </si>
-  <si>
-    <t>Last Name*</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -169,13 +163,292 @@
   </si>
   <si>
     <t>AbinNivas</t>
+  </si>
+  <si>
+    <t>Ebeny</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>896523147</t>
+  </si>
+  <si>
+    <t>ebeny@gmail.com</t>
+  </si>
+  <si>
+    <t>Address of Ebeny</t>
+  </si>
+  <si>
+    <t>Alphin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>753159842</t>
+  </si>
+  <si>
+    <t>alphin@gmail.com</t>
+  </si>
+  <si>
+    <t>Address of Alphin</t>
+  </si>
+  <si>
+    <t>789456</t>
+  </si>
+  <si>
+    <t>15975</t>
+  </si>
+  <si>
+    <t>78459</t>
+  </si>
+  <si>
+    <t>45125</t>
+  </si>
+  <si>
+    <t>KODAK</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>12-12-1994</t>
+  </si>
+  <si>
+    <t>07-06-1987</t>
+  </si>
+  <si>
+    <t>28-04-2000</t>
+  </si>
+  <si>
+    <t>78799</t>
+  </si>
+  <si>
+    <t>78697</t>
+  </si>
+  <si>
+    <t>ForBankDetails</t>
+  </si>
+  <si>
+    <t>Postcode*</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>78946123</t>
+  </si>
+  <si>
+    <t>7531598426</t>
+  </si>
+  <si>
+    <t>yami@gmail.com</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Address of yami</t>
+  </si>
+  <si>
+    <t>789546</t>
+  </si>
+  <si>
+    <t>Pathanamthitta</t>
+  </si>
+  <si>
+    <t>Near Ganapathi covil</t>
+  </si>
+  <si>
+    <t>789545</t>
+  </si>
+  <si>
+    <t>256489</t>
+  </si>
+  <si>
+    <t>KSCF</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>26-03-1998</t>
+  </si>
+  <si>
+    <t>For Search</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Ni Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>renju</t>
+  </si>
+  <si>
+    <t>renju@gmail.com</t>
+  </si>
+  <si>
+    <t>Title(dropdown)</t>
+  </si>
+  <si>
+    <t>FirstName*</t>
+  </si>
+  <si>
+    <t>LastName*</t>
+  </si>
+  <si>
+    <t>Gender*</t>
+  </si>
+  <si>
+    <t>AddressLine1*</t>
+  </si>
+  <si>
+    <t>Branch*(dropdown)</t>
+  </si>
+  <si>
+    <t>Division*(dropdown)</t>
+  </si>
+  <si>
+    <t>EmploymentType*(dropdown)</t>
+  </si>
+  <si>
+    <t>PayslipMethod*dropdown)</t>
+  </si>
+  <si>
+    <t>EngageStatus(dropdown)</t>
+  </si>
+  <si>
+    <t>4654654</t>
+  </si>
+  <si>
+    <t>DateOfBirth*</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Alpha_new</t>
+  </si>
+  <si>
+    <t>paye</t>
+  </si>
+  <si>
+    <t>NewAlpha</t>
+  </si>
+  <si>
+    <t>electronic</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>543534</t>
+  </si>
+  <si>
+    <t>PaymentMethod*(dropdown)</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>StartDate*</t>
+  </si>
+  <si>
+    <t>For View</t>
+  </si>
+  <si>
+    <t>DENNIS BENNY</t>
+  </si>
+  <si>
+    <t>Aamna</t>
+  </si>
+  <si>
+    <t>For Edit</t>
+  </si>
+  <si>
+    <t>Ambi</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>AAMI</t>
+  </si>
+  <si>
+    <t>ABY</t>
+  </si>
+  <si>
+    <t>YAMI</t>
+  </si>
+  <si>
+    <t>EBENY</t>
+  </si>
+  <si>
+    <t>Worker*</t>
+  </si>
+  <si>
+    <t>Type*</t>
+  </si>
+  <si>
+    <t>Amount*</t>
+  </si>
+  <si>
+    <t>EffectiveFrom*</t>
+  </si>
+  <si>
+    <t>ABIN</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>07-01-2022</t>
+  </si>
+  <si>
+    <t>For Update</t>
+  </si>
+  <si>
+    <t>EMIL</t>
+  </si>
+  <si>
+    <t>MYRA</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>26-06-2022</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +460,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,10 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,7 +784,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +810,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>546345</v>
@@ -535,12 +818,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -550,116 +833,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,60 +869,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -730,173 +943,957 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>